--- a/경고.xlsx
+++ b/경고.xlsx
@@ -1,33 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AE584114432DB08758E2E2B98ABE0A08C8515089" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{150BD280-F78E-421B-BAE0-3559E9EED990}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcCompleted="0" calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>736135672842420326</t>
+  </si>
+  <si>
+    <t>735466302680072212</t>
+  </si>
+  <si>
+    <t>629560211786432542</t>
+  </si>
+  <si>
+    <t>653075791814590487</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +70,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,63 +387,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="12.375"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>736135672842420326</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>735466302680072212</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>629560211786432542</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>653075791814590487</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>